--- a/04.지도시각화/data/draw_korea_raw(2021).xlsx
+++ b/04.지도시각화/data/draw_korea_raw(2021).xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\빅데이터\백엔드\WorkSpace\DataAnalysis\04.지도시각화\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="지도(2205)" sheetId="2" r:id="rId1"/>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="291">
   <si>
     <t>철원</t>
   </si>
@@ -935,13 +940,17 @@
   </si>
   <si>
     <t>여수</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>인천 미추홀</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5">
     <font>
       <sz val="12"/>
@@ -1245,7 +1254,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1280,7 +1289,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1491,13 +1500,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="19.2"/>
   <cols>
-    <col min="1" max="14" width="7.77734375" style="1" customWidth="1"/>
+    <col min="1" max="14" width="7.81640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="35.1" customHeight="1">
@@ -1836,7 +1845,7 @@
         <v>76</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>77</v>
+        <v>290</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>66</v>
@@ -2465,9 +2474,9 @@
       <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="19.2"/>
   <cols>
-    <col min="1" max="14" width="7.77734375" style="1" customWidth="1"/>
+    <col min="1" max="14" width="7.81640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="35.1" customHeight="1">
